--- a/Example/Template2.xlsx
+++ b/Example/Template2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Product List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>%Products#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%style!B6:D6#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -431,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -441,7 +445,9 @@
       <c r="B4" s="1"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>

--- a/Example/Template2.xlsx
+++ b/Example/Template2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Product List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,7 +26,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%style!B6:D6#</t>
+    <t>%styleFullCover!B6:D6#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%styleUnderLine!B8#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%styleFullBlueCover!B10:D10#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +78,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,14 +108,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -405,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -433,10 +458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D6"/>
+  <dimension ref="B4:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -451,6 +476,18 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
